--- a/timetables.xlsx
+++ b/timetables.xlsx
@@ -728,14 +728,10 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+          <t>PSYCHOLOGY 11</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -792,32 +788,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>MATHEMATICS 9 HONOURS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9 HONOURS</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>SPANISH 9</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SPANISH 9</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
@@ -918,32 +914,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -1076,19 +1072,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>DANCE FOUNDATIONS 12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DANCE FOUNDATIONS 12</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>INSTRUMENTAL MUSIC: ORCHESTRA 12 Strings Linear</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1175,7 +1167,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -1291,17 +1283,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>PHOTOGRAPHY 11</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>PHOTOGRAPHY 11</t>
+          <t>WORKPLACE MATHEMATICS 11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>WORKPLACE MATHEMATICS 11</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1529,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>STRINGS 9 LINEAR</t>
+          <t>LEADERSHIP 9 LD</t>
         </is>
       </c>
     </row>
@@ -1712,42 +1704,42 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
+          <t>FOOD STUDIES 12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FOOD STUDIES 12</t>
+          <t>MEDIA DESIGN 12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MEDIA DESIGN 12</t>
+          <t>AUTOMOTIVE TECHNOLOGY 11</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>AUTOMOTIVE TECHNOLOGY 11</t>
+          <t>ART STUDIO 12</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ART STUDIO 12</t>
+          <t>WORKPLACE MATHEMATICS 11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>WORKPLACE MATHEMATICS 11</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -2287,11 +2279,7 @@
           <t>PRE-CALCULUS 12</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>COMMUNITY LEADERSHIP 12</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2578,12 +2566,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
     </row>
@@ -2615,17 +2603,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2697,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 11 Linear</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -2900,24 +2888,20 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20th CENTURY WORLD HISTORY 12</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
-        </is>
-      </c>
+          <t>CRIMINOLOGY 12</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3063,27 +3047,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
     </row>
@@ -3142,32 +3126,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3210,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 11: CONCERT CHOIR Linear</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11</t>
+          <t>PHYSICAL GEOGRAPHY 12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3241,17 +3225,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>PHYSICAL GEOGRAPHY 12</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SPANISH 11</t>
+          <t>AUTOMOTIVE TECHNOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -3637,37 +3621,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DANCE 9 Choreography Linear</t>
+          <t>DANCE 9 Performance and Technique</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DANCE 9 Performance and Technique</t>
+          <t>MATHEMATICS 9</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls Linear</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls Linear</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>CONCERT BAND 9 Linear</t>
         </is>
       </c>
     </row>
@@ -3723,27 +3707,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>MEDIA DESIGN 11</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>MEDIA DESIGN 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
     </row>
@@ -3881,37 +3865,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DANCE 11: CHOREOGRAPHY Linear</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 11 Linear</t>
+          <t>LIFE SCIENCES 11</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LIFE SCIENCES 11</t>
+          <t>MARKETING AND PROMOTION 11</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>MARKETING AND PROMOTION 11</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -4076,32 +4060,32 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DANCE 9 Choreography Linear</t>
+          <t>DANCE 9 Performance and Technique</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>DRAMA 9</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DANCE 9 Performance and Technique</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>DRAMA 9</t>
+          <t>MATHEMATICS 9</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
@@ -4323,37 +4307,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DANCE 11: CHOREOGRAPHY Linear</t>
+          <t>E-COMMERCE 12</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 11 Linear</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>E-COMMERCE 12</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -4645,11 +4629,7 @@
           <t>STATISTICS 12</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4726,12 +4706,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -4894,12 +4874,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
     </row>
@@ -4936,14 +4916,10 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+          <t>ELL Academic Literacy 11</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5010,22 +4986,22 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -5126,32 +5102,32 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>DRAMA 10</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DRAMA 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10 CHALLENGE</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10 CHALLENGE</t>
+          <t>FRENCH 12</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>FRENCH 12</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -5314,12 +5290,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5505,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>STRINGS 9 LINEAR</t>
+          <t>LEADERSHIP 9 LD</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5631,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -5677,7 +5653,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>PHYSICAL GEOGRAPHY 12</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5687,17 +5663,17 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>PHYSICAL GEOGRAPHY 12</t>
+          <t>DRAFTING 12</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>DRAFTING 12</t>
+          <t>ART STUDIO 12</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>ART STUDIO 12</t>
+          <t>ELL Academic Literacy 11</t>
         </is>
       </c>
     </row>
@@ -5779,11 +5755,7 @@
           <t>PHYSICS 12</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>PEER TUTORING 12 LINEAR</t>
-        </is>
-      </c>
+      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5816,16 +5788,8 @@
           <t>AUTOMOTIVE TECHNOLOGY 11</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>WORK EXPERIENCE 12B LINEAR</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6500,12 +6464,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
+          <t>DRAMA 10</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6515,17 +6479,17 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>DRAMA 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -6589,27 +6553,27 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6615,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>STRINGS 9 LINEAR</t>
+          <t>LEADERSHIP 9 LD</t>
         </is>
       </c>
     </row>
@@ -6811,7 +6775,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -6922,22 +6886,22 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>SPANISH 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -6977,11 +6941,7 @@
           <t>PHYSICS 12</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7011,17 +6971,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
+          <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>20th CENTURY WORLD HISTORY 12</t>
+          <t>LEARNING STRATEGIES 12 LINEAR</t>
         </is>
       </c>
     </row>
@@ -7038,32 +6998,32 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>SPANISH 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -7095,17 +7055,17 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
     </row>
@@ -7370,12 +7330,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -7385,17 +7345,17 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -7430,11 +7390,7 @@
           <t>LITERARY STUDIES 12</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
@@ -7726,42 +7682,42 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>MARKETING AND PROMOTION 11</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>MARKETING AND PROMOTION 11</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -8030,34 +7986,30 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>ITALIAN 12</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ITALIAN 12</t>
+          <t>PHYSICAL GEOGRAPHY 12</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>PHYSICAL GEOGRAPHY 12</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+          <t>PSYCHOLOGY 11</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -8067,37 +8019,37 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>MARKETING AND PROMOTION 11</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>MARKETING AND PROMOTION 11</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -8203,27 +8155,27 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>ADST ? MEDIA DESIGN 10</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>ADST ? MEDIA DESIGN 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -8381,17 +8333,17 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>E-COMMERCE 12</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>ENGLISH STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>E-COMMERCE 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8385,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -8712,22 +8664,22 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -8749,27 +8701,27 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>INSTRUMENTAL MUSIC: CONCERT BAND 10 Linear</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: CONCERT BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -8796,24 +8748,20 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
-        </is>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
           <t>AUTOMOTIVE TECHNOLOGY 12</t>
         </is>
       </c>
+      <c r="H203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8875,27 +8823,27 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10 CHALLENGE</t>
+          <t>ADST ?  DRAFTING 10</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>ADST ?  DRAFTING 10</t>
+          <t>ADST ?  WOODWORK 10</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9011,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>CONCERT CHOIR 9 Linear</t>
+          <t>TECH ED 9: MECHANICS LD</t>
         </is>
       </c>
     </row>
@@ -9196,42 +9144,42 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SPOKEN LANGUAGE 10 LINEAR</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>SPOKEN LANGUAGE 10 LINEAR</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>ADST ?  DRAFTING 10</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>ADST ?  DRAFTING 10</t>
+          <t>ADST-Technology Explorations 10 Design Innov &amp; Inq</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>ADST-Technology Explorations 10 Design Innov &amp; Inq</t>
+          <t>WORKPLACE MATHEMATICS 10</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>WORKPLACE MATHEMATICS 10</t>
+          <t>BEGINNERS ELL 10 Linear</t>
         </is>
       </c>
     </row>
@@ -9389,17 +9337,17 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -9567,7 +9515,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>STRINGS 9 LINEAR</t>
+          <t>LEADERSHIP 9 LD</t>
         </is>
       </c>
     </row>
@@ -9691,11 +9639,7 @@
           <t>ENGINE AND DRIVETRAIN 12</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
-        </is>
-      </c>
+      <c r="H224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -9715,27 +9659,27 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -9757,7 +9701,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>E-COMMERCE 12</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9767,17 +9711,17 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>ENGLISH STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>E-COMMERCE 12</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>ENGLISH STUDIES 12 CHALLENGE</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
     </row>
@@ -9809,17 +9753,17 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
     </row>
@@ -10088,32 +10032,32 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DANCE 9 Choreography Linear</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>FRENCH 9</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>FRENCH 9</t>
+          <t>MATHEMATICS 9</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
@@ -10234,12 +10178,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>OUTDOOR EDUCATION 12</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>OUTDOOR EDUCATION 12</t>
+          <t>PHYSICAL GEOGRAPHY 12</t>
         </is>
       </c>
     </row>
@@ -10308,22 +10252,22 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>ADST-Technology Explorations 10 Design Innov &amp; Inq</t>
         </is>
       </c>
     </row>
@@ -10335,37 +10279,37 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 11: CONCERT CHOIR Linear</t>
+          <t>CREATIVE WRITING 11</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>CREATIVE WRITING 11</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>DANCE 11: CHOREOGRAPHY Linear</t>
+          <t>DRAMA 11</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 11 Linear</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>DRAMA 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -10508,12 +10452,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10523,17 +10467,17 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -10976,22 +10920,22 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
     </row>
@@ -11045,37 +10989,37 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
+          <t>GERMAN 12</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>GERMAN 12</t>
+          <t>KOREAN 10</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>KOREAN 10</t>
+          <t>KOREAN 11</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>KOREAN 11</t>
+          <t>KOREAN 12</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>KOREAN 12</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
     </row>
@@ -11102,22 +11046,22 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>DRAFTING 11</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11083,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>DRAMA 12</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11149,17 +11093,17 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>DRAMA 12</t>
+          <t>ENGLISH STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>ENGLISH STUDIES 12 CHALLENGE</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
+          <t>AUTOMOTIVE TECHNOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -11507,37 +11451,37 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DANCE 11: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 11 Linear</t>
+          <t>ENVIRONMENTAL SCIENCE 11</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
+          <t>FOUNDATIONS OF MATHEMATICS 11</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL SCIENCE 11</t>
+          <t>FRENCH 11</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATHEMATICS 11</t>
+          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>FRENCH 11</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
     </row>
@@ -11564,22 +11508,22 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -11638,12 +11582,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -11653,17 +11597,17 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12275,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
     </row>
@@ -12368,12 +12312,12 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>ART STUDIO 11</t>
         </is>
       </c>
     </row>
@@ -12568,22 +12512,22 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -12848,32 +12792,32 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -12957,7 +12901,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 12</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -13137,37 +13081,37 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 11: CONCERT CHOIR Linear</t>
+          <t>3D ANIMATION 12</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>3D ANIMATION 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>ITALIAN 12</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>ITALIAN 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>DRAFTING 11</t>
         </is>
       </c>
     </row>
@@ -13320,22 +13264,22 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>ADST-Technology Explorations 10 Design Innov &amp; Inq</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13321,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
     </row>
@@ -13473,37 +13417,37 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>DANCE 9 Choreography Linear</t>
+          <t>DANCE 9 Performance and Technique</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>DANCE 9 Performance and Technique</t>
+          <t>FRENCH 12</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>MATHEMATICS 9</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>FRENCH 12</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
@@ -13577,17 +13521,17 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>ENTREPRENEURSHIP 12</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -13753,51 +13697,47 @@
           <t>OUTDOOR EDUCATION 12</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>PEER TUTORING 12 LINEAR</t>
-        </is>
-      </c>
+      <c r="H321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>MARKETING AND PROMOTION 11</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>MARKETING AND PROMOTION 11</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -13861,27 +13801,27 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10 CHALLENGE</t>
+          <t>ADST ?  DRAFTING 10</t>
         </is>
       </c>
     </row>
@@ -13893,37 +13833,37 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10 HONOURS</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>INSTRUMENTAL MUSIC: CONCERT BAND 10 Linear</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10 HONOURS</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: CONCERT BAND 10 Linear</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>ADST ?  POWER TECHNOLOGY 10</t>
         </is>
       </c>
     </row>
@@ -13977,37 +13917,37 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>DRAMA 10</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>DRAMA 10</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>SPANISH 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -14047,11 +13987,7 @@
           <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
-        </is>
-      </c>
+      <c r="H328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -14291,17 +14227,17 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
+          <t>DESIGN AND INNOVATION 11</t>
         </is>
       </c>
     </row>
@@ -14469,7 +14405,7 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 11</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -14486,32 +14422,32 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -14570,32 +14506,32 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -15047,17 +14983,17 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -15346,12 +15282,12 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 12</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -15494,12 +15430,12 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -15509,17 +15445,17 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -15705,27 +15641,27 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
     </row>
@@ -16033,27 +15969,27 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>DANCE 11: CHOREOGRAPHY Linear</t>
+          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 11 Linear</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
+          <t>WORKPLACE MATHEMATICS 11</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
+          <t>YOGA FOR MINDFULNESS 11</t>
         </is>
       </c>
     </row>
@@ -16080,22 +16016,22 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 10 Strings LINEAR</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>ADST ?  WOODWORK 10</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16241,7 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
     </row>
@@ -16342,12 +16278,12 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 12</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -16421,17 +16357,17 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -16557,7 +16493,7 @@
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>JAZZ BAND 9 LINEAR</t>
+          <t>NUMERACY 9</t>
         </is>
       </c>
     </row>
@@ -16621,27 +16557,27 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -16767,7 +16703,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -16784,12 +16720,12 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -16799,17 +16735,17 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 11 Linear</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -16873,7 +16809,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -16883,19 +16819,15 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
-        </is>
-      </c>
-      <c r="H396" t="inlineStr">
-        <is>
           <t>ROBOTICS 12</t>
         </is>
       </c>
+      <c r="H396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -16935,7 +16867,7 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -17125,7 +17057,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>PHYSICAL GEOGRAPHY 12</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -17135,17 +17067,17 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>PHYSICAL GEOGRAPHY 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
+          <t>SPOKEN LANGUAGE 11</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>SPOKEN LANGUAGE 11</t>
+          <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
     </row>
@@ -17219,17 +17151,17 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>MEDIA DESIGN 12</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>MEDIA DESIGN 12</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>ART STUDIO 12</t>
         </is>
       </c>
     </row>
@@ -17246,12 +17178,12 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -17261,17 +17193,17 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -17288,32 +17220,32 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>MATHEMATICS 9</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9</t>
+          <t>ADST ? MEDIA DESIGN 10</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>ADST ? MEDIA DESIGN 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>VISUAL ARTS: ART STUDIO 10</t>
         </is>
       </c>
     </row>
@@ -17397,7 +17329,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -17681,17 +17613,17 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC: CONCERT CHOIR 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -17797,27 +17729,27 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>SPANISH 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>VISUAL ARTS: PHOTOGRAPHY 10</t>
         </is>
       </c>
     </row>
@@ -18135,17 +18067,17 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>DANCE 11: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 11 Linear</t>
+          <t>ENVIRONMENTAL SCIENCE 11</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
+          <t>FOUNDATIONS OF MATHEMATICS 11</t>
         </is>
       </c>
     </row>
@@ -18209,7 +18141,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -18219,17 +18151,17 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
+          <t>DRAFTING 11</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>DRAFTING 11</t>
+          <t>DRAFTING 12</t>
         </is>
       </c>
     </row>
@@ -18439,7 +18371,7 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -18699,37 +18631,37 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>DANCE 9 Choreography Linear</t>
+          <t>DANCE 9 Performance and Technique</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>DANCE 9 Performance and Technique</t>
+          <t>MATHEMATICS 9</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
+          <t>SPANISH 9</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
@@ -19045,27 +18977,27 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LIFE SCIENCES 11</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>LIFE SCIENCES 11</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
     </row>
@@ -19077,34 +19009,30 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>COMPARATIVE CULTURES 12</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>COMPARATIVE CULTURES 12</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>FOUNDATIONS OF MATHEMATICS 11</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATHEMATICS 11</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>SPANISH 11</t>
-        </is>
-      </c>
-      <c r="G449" t="inlineStr">
-        <is>
           <t>PHOTOGRAPHY 11</t>
         </is>
       </c>
+      <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr"/>
     </row>
     <row r="450">
@@ -19167,19 +19095,11 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
-        </is>
-      </c>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>WORK EXPERIENCE 12B LINEAR</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
           <t>LEARNING STRATEGIES 12</t>
         </is>
       </c>
+      <c r="E451" t="inlineStr"/>
+      <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr"/>
       <c r="H451" t="inlineStr"/>
     </row>
@@ -19737,71 +19657,63 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DANCE 9 Choreography Linear</t>
+          <t>DANCE 9 Performance and Technique</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>DANCE 9 Performance and Technique</t>
+          <t>MATHEMATICS 9 HONOURS</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9 HONOURS</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
+          <t>SPANISH 9</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>DANCE 11: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 11 Linear</t>
+          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
+          <t>FOUNDATIONS OF MATHEMATICS 11</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>FOUNDATIONS OF MATHEMATICS 11</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
           <t>LAW STUDIES 12</t>
         </is>
       </c>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr"/>
     </row>
@@ -19922,7 +19834,7 @@
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
+          <t>LEARNING STRATEGIES 12</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
@@ -20285,29 +20197,25 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>AUTOMOTIVE TECHNOLOGY 12</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>AUTOMOTIVE TECHNOLOGY 12</t>
+          <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>20th CENTURY WORLD HISTORY 12</t>
-        </is>
-      </c>
-      <c r="H478" t="inlineStr">
-        <is>
           <t>PSYCHOLOGY 11</t>
         </is>
       </c>
+      <c r="H478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -20332,22 +20240,22 @@
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10 CHALLENGE</t>
+          <t>ADST ?  POWER TECHNOLOGY 10</t>
         </is>
       </c>
     </row>
@@ -20636,12 +20544,12 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 11 Linear</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>CRIMINOLOGY 12</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -20725,7 +20633,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -20863,37 +20771,37 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -20920,22 +20828,22 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>ADST ? MEDIA DESIGN 10</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>ADST ? MEDIA DESIGN 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC: CONCERT CHOIR 10 Linear</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -21093,17 +21001,17 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
+          <t>SPOKEN LANGUAGE 11</t>
         </is>
       </c>
     </row>
@@ -21167,27 +21075,27 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>MEDIA DESIGN 12</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>MEDIA DESIGN 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>STATISTICS 12</t>
+          <t>CONCERT BAND 9 - Guitar</t>
         </is>
       </c>
     </row>
@@ -21266,14 +21174,10 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
-      <c r="H501" t="inlineStr">
-        <is>
           <t>CRIMINOLOGY 12</t>
         </is>
       </c>
+      <c r="H501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -21288,32 +21192,32 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>INSTRUMENTAL MUSIC: CONCERT BAND 10 Linear</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: CONCERT BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>SPANISH 10</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10 CHALLENGE</t>
+          <t>Information and Communications Technologies 10</t>
         </is>
       </c>
     </row>
@@ -21513,17 +21417,17 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
     </row>
@@ -21545,27 +21449,27 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 12</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -21775,7 +21679,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -21807,17 +21711,17 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -21854,12 +21758,12 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
     </row>
@@ -21933,17 +21837,17 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -22002,32 +21906,32 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 12</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
+          <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>20th CENTURY WORLD HISTORY 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -22059,17 +21963,17 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>DRAFTING 11</t>
         </is>
       </c>
     </row>
@@ -22086,32 +21990,32 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12 Year</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12 Year</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>OUTDOOR EDUCATION 12</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>OUTDOOR EDUCATION 12</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
+          <t>SPOKEN LANGUAGE 11</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>SPOKEN LANGUAGE 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -22185,17 +22089,17 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -22264,22 +22168,22 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>DRAFTING 12</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>DRAFTING 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>CRIMINOLOGY 12</t>
+          <t>DESIGN AND INNOVATION 12</t>
         </is>
       </c>
     </row>
@@ -22571,11 +22475,7 @@
           <t>PHOTOGRAPHY 12</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+      <c r="H532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -22632,32 +22532,32 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Boys</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Boys</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>SPANISH 10</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10 CHALLENGE</t>
+          <t>ADST ?  POWER TECHNOLOGY 10</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>ADST ?  POWER TECHNOLOGY 10</t>
+          <t>Information and Communications Technologies 10</t>
         </is>
       </c>
     </row>
@@ -22717,7 +22617,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>ENGLISH STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -22727,17 +22627,17 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>ENGLISH STUDIES 12 CHALLENGE</t>
+          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC: ORCHESTRA 12 Strings Linear</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
     </row>
@@ -22843,27 +22743,27 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Boys</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Boys</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>Information and Communications Technologies 10</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>Information and Communications Technologies 10</t>
+          <t>LEARNING STRATEGIES 10 LINEAR</t>
         </is>
       </c>
     </row>
@@ -22937,17 +22837,17 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
     </row>
@@ -22984,12 +22884,12 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -23539,37 +23439,37 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10 HONOURS</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10 HONOURS</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>SPANISH 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -23900,12 +23800,12 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -24189,61 +24089,53 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>DRAFTING 12</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>DRAFTING 12</t>
-        </is>
-      </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
-        </is>
-      </c>
+          <t>ELL Academic Literacy 11</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>COMPARATIVE CULTURES 12</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>COMPARATIVE CULTURES 12</t>
+          <t>DRAMA 12</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>DRAMA 12</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL SCIENCE 12 - CLIMATE CHANGE</t>
+          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
         </is>
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
-        </is>
-      </c>
-      <c r="H572" t="inlineStr">
-        <is>
           <t>OUTDOOR EDUCATION 12</t>
         </is>
       </c>
+      <c r="H572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -24362,14 +24254,10 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>PEER TUTORING 12 LINEAR</t>
-        </is>
-      </c>
-      <c r="H575" t="inlineStr">
-        <is>
           <t>CRIMINOLOGY 12</t>
         </is>
       </c>
+      <c r="H575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -24502,32 +24390,32 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -24807,19 +24695,15 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
-        </is>
-      </c>
-      <c r="H586" t="inlineStr">
-        <is>
           <t>PSYCHOLOGY 11</t>
         </is>
       </c>
+      <c r="H586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -24943,7 +24827,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -24985,7 +24869,7 @@
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>JAZZ BAND 9 LINEAR</t>
+          <t>NUMERACY 9</t>
         </is>
       </c>
     </row>
@@ -25242,32 +25126,32 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>DRAMA 9</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>DRAMA 9</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>MATHEMATICS 9</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9</t>
         </is>
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
@@ -25346,14 +25230,10 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
-        </is>
-      </c>
-      <c r="H599" t="inlineStr">
-        <is>
           <t>YOGA FOR MINDFULNESS 12</t>
         </is>
       </c>
+      <c r="H599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -25388,12 +25268,12 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
+          <t>YOGA FOR MINDFULNESS 11</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>PEER TUTORING 11 LINEAR</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -25435,7 +25315,7 @@
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 10 Strings LINEAR</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
     </row>
@@ -25737,17 +25617,17 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -25757,19 +25637,15 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
-        </is>
-      </c>
-      <c r="H609" t="inlineStr">
-        <is>
           <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
+      <c r="H609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -25821,79 +25697,79 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>DANCE 9 Choreography Linear</t>
+          <t>DANCE 9 Performance and Technique</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>DANCE 9 Performance and Technique</t>
+          <t>MATHEMATICS 9 HONOURS</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9 HONOURS</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
+          <t>SPANISH 9</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10 HONOURS</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>MARKETING AND PROMOTION 11</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10 HONOURS</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>MARKETING AND PROMOTION 11</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -26167,27 +26043,27 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>VISUAL ARTS: ART STUDIO 10</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>VISUAL ARTS: ART STUDIO 10</t>
+          <t>Information and Communications Technologies 10</t>
         </is>
       </c>
     </row>
@@ -26461,27 +26337,27 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>LIFE SCIENCES 11</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>LIFE SCIENCES 11</t>
+          <t>OUTDOOR EDUCATION 11</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>OUTDOOR EDUCATION 11</t>
+          <t>AUTOMOTIVE TECHNOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -26565,7 +26441,7 @@
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
     </row>
@@ -26792,32 +26668,32 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
     </row>
@@ -26871,37 +26747,37 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>DANCE 11: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12 Year</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 11</t>
+          <t>ENVIRONMENTAL SCIENCE 11</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12 Year</t>
+          <t>FOOD STUDIES 12</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL SCIENCE 11</t>
+          <t>SPOKEN LANGUAGE 11</t>
         </is>
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>FOOD STUDIES 12</t>
+          <t>ART STUDIO 12</t>
         </is>
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>SPOKEN LANGUAGE 11</t>
+          <t>YOGA FOR MINDFULNESS 12</t>
         </is>
       </c>
     </row>
@@ -26985,7 +26861,7 @@
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
+          <t>LEARNING STRATEGIES 12</t>
         </is>
       </c>
     </row>
@@ -27002,32 +26878,32 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SPANISH 10</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -27338,32 +27214,32 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -27404,34 +27280,30 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 12</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 12</t>
+          <t>ENGLISH FIRST PEOPLES 12 Year</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12 Year</t>
+          <t>FOOD STUDIES 12</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>FOOD STUDIES 12</t>
+          <t>OUTDOOR EDUCATION 12</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>OUTDOOR EDUCATION 12</t>
-        </is>
-      </c>
-      <c r="F649" t="inlineStr">
-        <is>
           <t>SPOKEN LANGUAGE 11</t>
         </is>
       </c>
+      <c r="F649" t="inlineStr"/>
       <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr"/>
     </row>
@@ -27711,19 +27583,15 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 12</t>
-        </is>
-      </c>
-      <c r="H656" t="inlineStr">
-        <is>
           <t>PHYSICS 11</t>
         </is>
       </c>
+      <c r="H656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -28013,11 +27881,7 @@
           <t>PRE-CALCULUS 12</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>SCHOLARSHIP PREPARATION 12 LINEAR</t>
-        </is>
-      </c>
+      <c r="H663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
@@ -28126,24 +27990,20 @@
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 10 Strings LINEAR</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
-        </is>
-      </c>
-      <c r="H666" t="inlineStr">
-        <is>
           <t>ADST ?  WOODWORK 10</t>
         </is>
       </c>
+      <c r="H666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
@@ -28183,7 +28043,7 @@
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -28220,12 +28080,12 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: JAZZ BAND LINEAR</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>STATISTICS 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -28927,7 +28787,7 @@
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>COMMUNITY LEADERSHIP 11 Linear</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -29070,32 +28930,32 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>DRAFTING 11</t>
         </is>
       </c>
     </row>
@@ -29117,27 +28977,27 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>ITALIAN 11</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>ITALIAN 11</t>
+          <t>LIFE SCIENCES 11</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>LIFE SCIENCES 11</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -29191,37 +29051,37 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>DANCE 9 Company: Platform 61 Linear</t>
+          <t>ENGLISH LANGUAGE ARTS 9</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>ENGLISH LANGUAGE ARTS 9</t>
+          <t>FRENCH 9</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>FRENCH 9</t>
+          <t>MATHEMATICS 9</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>MATHEMATICS 9</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 9 Girls</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>SPANISH 9</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>SPANISH 9</t>
+          <t>SOCIAL STUDIES 9</t>
         </is>
       </c>
     </row>
@@ -29555,11 +29415,7 @@
           <t>INCLUSIVE INTRODUCTION TO TRADE SKILLS 12</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
-        </is>
-      </c>
+      <c r="H700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
@@ -29698,22 +29554,22 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>LIFE SCIENCES 11</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>LIFE SCIENCES 11</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -29856,12 +29712,12 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
@@ -29871,17 +29727,17 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -29952,14 +29808,10 @@
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr">
-        <is>
           <t>PSYCHOLOGY 11</t>
         </is>
       </c>
+      <c r="H710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
@@ -30273,27 +30125,27 @@
       </c>
       <c r="D718" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 12 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
         </is>
       </c>
       <c r="E718" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
       <c r="G718" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 12</t>
+          <t>ART STUDIO 12</t>
         </is>
       </c>
       <c r="H718" t="inlineStr">
         <is>
-          <t>ART STUDIO 12</t>
+          <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
     </row>
@@ -30569,17 +30421,17 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>ITALIAN 12</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>ITALIAN 12</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
       <c r="H725" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
     </row>
@@ -30759,37 +30611,37 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>FRENCH 10</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>FRENCH 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SPOKEN LANGUAGE 10 LINEAR</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>SPOKEN LANGUAGE 10 LINEAR</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H730" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>BEGINNERS ELL 10 Linear</t>
         </is>
       </c>
     </row>
@@ -30890,12 +30742,12 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
@@ -30905,17 +30757,17 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H733" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -30974,32 +30826,32 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>ITALIAN 11</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
         <is>
-          <t>ITALIAN 11</t>
+          <t>LIFE SCIENCES 11</t>
         </is>
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>LIFE SCIENCES 11</t>
+          <t>LITERARY STUDIES 11</t>
         </is>
       </c>
       <c r="G735" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H735" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
     </row>
@@ -31078,12 +30930,12 @@
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 11 Strings Linear</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H737" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
     </row>
@@ -31481,17 +31333,17 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 10 Strings LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H747" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -31835,37 +31687,37 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H756" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>LEARNING STRATEGIES 10</t>
         </is>
       </c>
     </row>
@@ -32018,22 +31870,22 @@
       </c>
       <c r="E760" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G760" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11</t>
         </is>
       </c>
       <c r="H760" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -32144,22 +31996,22 @@
       </c>
       <c r="E763" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 10 Strings LINEAR</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="G763" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H763" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>Information and Communications Technologies 10</t>
         </is>
       </c>
     </row>
@@ -32181,7 +32033,7 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 12</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -32191,17 +32043,17 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 12</t>
+          <t>INSTRUMENTAL MUSIC 12: GUITAR</t>
         </is>
       </c>
       <c r="H764" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
     </row>
@@ -32292,42 +32144,42 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>DANCE 10: CHOREOGRAPHY Linear</t>
+          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 10 Linear</t>
+          <t>DRAMA 10</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>DANCE TECHNIQUE AND PERFORMANCE 10</t>
+          <t>EFP WRITING 10</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>DRAMA 10</t>
+          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
         <is>
-          <t>EFP WRITING 10</t>
+          <t>ADST ?  FOOD STUDIES 10</t>
         </is>
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>FOUNDATIONS OF MATH AND PRE-CALCULUS 10</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>ADST ?  FOOD STUDIES 10</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="H767" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
     </row>
@@ -32391,7 +32243,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
@@ -32401,17 +32253,17 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="H769" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
     </row>
@@ -32559,7 +32411,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
@@ -32569,17 +32421,17 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12</t>
+          <t>PRE-CALCULUS 12</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12</t>
+          <t>ART STUDIO 11</t>
         </is>
       </c>
       <c r="H773" t="inlineStr">
         <is>
-          <t>ART STUDIO 11</t>
+          <t>ART STUDIO 12</t>
         </is>
       </c>
     </row>
@@ -32858,24 +32710,20 @@
       </c>
       <c r="E780" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>PHYSICS 12</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
         <is>
-          <t>STATISTICS 12</t>
-        </is>
-      </c>
-      <c r="H780" t="inlineStr">
-        <is>
-          <t>COMMUNITY LEADERSHIP 12 Linear</t>
-        </is>
-      </c>
+          <t>ELL Academic Literacy 11</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
@@ -32955,11 +32803,7 @@
           <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
-      <c r="H782" t="inlineStr">
-        <is>
-          <t>PEER TUTORING 10 LINEAR</t>
-        </is>
-      </c>
+      <c r="H782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -32994,12 +32838,12 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="H783" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
     </row>
@@ -33105,7 +32949,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
@@ -33115,17 +32959,17 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H786" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -33147,7 +32991,7 @@
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -33157,17 +33001,17 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="G787" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>SPANISH 12</t>
         </is>
       </c>
       <c r="H787" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -33231,7 +33075,7 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
@@ -33241,17 +33085,17 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
       <c r="H789" t="inlineStr">
         <is>
-          <t>LAW STUDIES 12</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -33283,17 +33127,17 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>LITERARY STUDIES 12</t>
         </is>
       </c>
       <c r="G790" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 12</t>
+          <t>INSTRUMENTAL MUSIC: ORCHESTRA 12 Strings Linear</t>
         </is>
       </c>
       <c r="H790" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: ORCHESTRA 12 Strings Linear</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -33399,27 +33243,27 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: JAZZ BAND LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 12</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 12</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
     </row>
@@ -33489,19 +33333,11 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>WORK EXPERIENCE 12A LINEAR</t>
-        </is>
-      </c>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>WORK EXPERIENCE 12B LINEAR</t>
-        </is>
-      </c>
-      <c r="H795" t="inlineStr">
-        <is>
           <t>20th CENTURY WORLD HISTORY 12</t>
         </is>
       </c>
+      <c r="G795" t="inlineStr"/>
+      <c r="H795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -33516,32 +33352,32 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>GRAPHIC PRODUCTION 11 LINEAR</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 11: CONCERT BAND LINEAR</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H796" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
@@ -33767,17 +33603,17 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC: JAZZ BAND 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
         </is>
       </c>
       <c r="G802" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 LINEAR</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="H802" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
     </row>
@@ -33925,27 +33761,27 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>INDEPENDENT DIRECTED STUDIES 10C</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
         </is>
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10 Girls</t>
+          <t>SCIENCE 10: CHALLENGE</t>
         </is>
       </c>
       <c r="G806" t="inlineStr">
         <is>
-          <t>SCIENCE 10: CHALLENGE</t>
+          <t>SOCIAL STUDIES 10 CHALLENGE</t>
         </is>
       </c>
       <c r="H806" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10 CHALLENGE</t>
+          <t>ADST ?  DRAFTING 10</t>
         </is>
       </c>
     </row>
@@ -34125,37 +33961,37 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC 12: CONCERT CHOIR Linear</t>
+          <t>DRAMA 12</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>DRAMA 12</t>
+          <t>ENGLISH STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>ENGLISH STUDIES 12 CHALLENGE</t>
+          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
         <is>
-          <t>INSTRUMENTAL MUSIC 12: CONCERT BAND LINEAR</t>
+          <t>MEDIA DESIGN 12</t>
         </is>
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>MEDIA DESIGN 12</t>
+          <t>PRE-CALCULUS 12 HONOURS</t>
         </is>
       </c>
       <c r="G811" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 12 HONOURS</t>
+          <t>SPANISH 11</t>
         </is>
       </c>
       <c r="H811" t="inlineStr">
         <is>
-          <t>SPANISH 11</t>
+          <t>PSYCHOLOGY 11</t>
         </is>
       </c>
     </row>
@@ -34219,7 +34055,7 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>DANCE 12: CHOREOGRAPHY Linear</t>
+          <t>E-COMMERCE 12</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
@@ -34229,17 +34065,17 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>DANCE COMPANY 12 Linear</t>
+          <t>ENGLISH FIRST PEOPLES 12</t>
         </is>
       </c>
       <c r="G813" t="inlineStr">
         <is>
-          <t>E-COMMERCE 12</t>
+          <t>LAW STUDIES 12</t>
         </is>
       </c>
       <c r="H813" t="inlineStr">
         <is>
-          <t>ENGLISH FIRST PEOPLES 12</t>
+          <t>PHYSICS 12</t>
         </is>
       </c>
     </row>
@@ -34718,32 +34554,32 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>CHORAL MUSIC: CONCERT CHOIR 10 Linear</t>
+          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>PHYSICAL AND HEALTH EDUCATION 10</t>
+          <t>SCIENCE 9</t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
         <is>
-          <t>SCIENCE 9</t>
+          <t>SCIENCE 10</t>
         </is>
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>SCIENCE 10</t>
+          <t>SPOKEN LANGUAGE 10 LINEAR</t>
         </is>
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>SPOKEN LANGUAGE 10 LINEAR</t>
+          <t>SOCIAL STUDIES 10</t>
         </is>
       </c>
       <c r="H825" t="inlineStr">
         <is>
-          <t>SOCIAL STUDIES 10</t>
+          <t>BEGINNERS ELL 10 Linear</t>
         </is>
       </c>
     </row>
@@ -34802,32 +34638,32 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>CONTEMPORARY INDIGENOUS STUDIES 12 CHALLENGE</t>
+          <t>LITERARY STUDIES 11 Challenge</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
         <is>
-          <t>LITERARY STUDIES 11 Challenge</t>
+          <t>COMPUTER SCIENCE 11</t>
         </is>
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>COMPUTER SCIENCE 11</t>
+          <t>PHYSICS 11</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
         <is>
-          <t>PHYSICS 11</t>
+          <t>PRE-CALCULUS 11 HONOURS</t>
         </is>
       </c>
       <c r="H827" t="inlineStr">
         <is>
-          <t>PRE-CALCULUS 11 HONOURS</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
     </row>
@@ -35153,17 +34989,17 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>GEOMETRY 12</t>
+          <t>STATISTICS 12</t>
         </is>
       </c>
       <c r="G835" t="inlineStr">
         <is>
-          <t>STATISTICS 12</t>
+          <t>ART STUDIO 12</t>
         </is>
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>ART STUDIO 12</t>
+          <t>CRIMINOLOGY 12</t>
         </is>
       </c>
     </row>
